--- a/Meizhu/meizhu_testcase.xlsx
+++ b/Meizhu/meizhu_testcase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>18802094078</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,6 +82,22 @@
   </si>
   <si>
     <t>手机号格式错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期望结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -89,7 +105,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,13 +141,32 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -146,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -154,6 +189,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -455,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -470,93 +507,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
+      <c r="A1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>16</v>
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
       <c r="C7" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Meizhu/meizhu_testcase.xlsx
+++ b/Meizhu/meizhu_testcase.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="美住登录" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="间夜房-提交订单" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>18802094078</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,6 +90,34 @@
   </si>
   <si>
     <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期望结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入住人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>押金</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -181,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -191,6 +219,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -494,7 +523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -620,12 +649,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="2" max="2" width="20.875" customWidth="1"/>
+    <col min="3" max="3" width="28.625" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="35.25" customWidth="1"/>
+    <col min="7" max="7" width="25.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Meizhu/meizhu_testcase.xlsx
+++ b/Meizhu/meizhu_testcase.xlsx
@@ -1,191 +1,147 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
+    <workbookView activeTab="0" windowHeight="7950" windowWidth="14805" xWindow="240" yWindow="165"/>
   </bookViews>
   <sheets>
-    <sheet name="美住登录" sheetId="1" r:id="rId1"/>
-    <sheet name="间夜房-提交订单" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="美住登录" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="间夜房-提交订单" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" concurrentCalc="0"/>
+  <definedNames/>
+  <calcPr calcId="0" concurrentCalc="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+  <si>
+    <t>用户名</t>
+  </si>
+  <si>
+    <t>密码</t>
+  </si>
+  <si>
+    <t>期望结果</t>
+  </si>
+  <si>
+    <t>实际结果</t>
+  </si>
   <si>
     <t>18802094078</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>qq1111111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码不正确</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
   <si>
     <t>18802094000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>qq111111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>用户不存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18802094078</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>111111111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>密码要求6~20位数字与字母组合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qq111111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>1880209407</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码不正确</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号格式错误</t>
   </si>
   <si>
     <t>请填写手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18802094078</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>请填写密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qq111111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号格式错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>期望结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>入住人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>身份证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>收款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>押金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>期望结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="7">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color rgb="FF222222"/>
       <sz val="11"/>
-      <color rgb="FF222222"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
       <name val="宋体"/>
       <family val="2"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -207,30 +163,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -520,190 +470,213 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="18.125" customWidth="1"/>
-    <col min="2" max="2" width="22.75" customWidth="1"/>
-    <col min="3" max="3" width="35.875" customWidth="1"/>
-    <col min="4" max="4" width="19.875" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="18.125"/>
+    <col customWidth="1" max="2" min="2" width="22.75"/>
+    <col customWidth="1" max="3" min="3" width="35.875"/>
+    <col customWidth="1" max="4" min="4" width="19.875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="1" t="n"/>
       <c r="C6" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="n"/>
+      <c r="C7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>12</v>
+      <c r="D8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="C9" s="1" t="n"/>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1" t="n"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
-    <col min="2" max="2" width="20.875" customWidth="1"/>
-    <col min="3" max="3" width="28.625" customWidth="1"/>
-    <col min="4" max="4" width="13.125" customWidth="1"/>
-    <col min="5" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="35.25" customWidth="1"/>
-    <col min="7" max="7" width="25.75" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="17.125"/>
+    <col customWidth="1" max="2" min="2" width="20.875"/>
+    <col customWidth="1" max="3" min="3" width="28.625"/>
+    <col customWidth="1" max="4" min="4" width="13.125"/>
+    <col customWidth="1" max="5" min="5" width="12.625"/>
+    <col customWidth="1" max="6" min="6" width="35.25"/>
+    <col customWidth="1" max="7" min="7" width="25.75"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="F1" s="7" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Meizhu/meizhu_testcase.xlsx
+++ b/Meizhu/meizhu_testcase.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" windowHeight="7950" windowWidth="14805" xWindow="240" yWindow="165"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
-    <sheet name="美住登录" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="间夜房-提交订单" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="美住登录" sheetId="1" r:id="rId1"/>
+    <sheet name="间夜房-提交订单" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" concurrentCalc="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>用户名</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>密码不正确</t>
-  </si>
-  <si>
-    <t>PASS</t>
   </si>
   <si>
     <t>18802094000</t>
@@ -87,61 +84,60 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <color rgb="FF222222"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <family val="2"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -163,24 +159,30 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -470,23 +472,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="18.125"/>
-    <col customWidth="1" max="2" min="2" width="22.75"/>
-    <col customWidth="1" max="3" min="3" width="35.875"/>
-    <col customWidth="1" max="4" min="4" width="19.875"/>
+    <col min="1" max="1" width="18.125" customWidth="1"/>
+    <col min="2" max="2" width="22.75" customWidth="1"/>
+    <col min="3" max="3" width="35.875" customWidth="1"/>
+    <col min="4" max="4" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -513,22 +511,16 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -536,61 +528,46 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4" t="s">
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="n"/>
-      <c r="B6" s="1" t="n"/>
-      <c r="C6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="1" t="n"/>
+      <c r="B7" s="1"/>
       <c r="C7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="1" t="n"/>
+      <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -598,58 +575,52 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1" t="n"/>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="1" t="n"/>
+        <v>8</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="F9" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="17.125"/>
-    <col customWidth="1" max="2" min="2" width="20.875"/>
-    <col customWidth="1" max="3" min="3" width="28.625"/>
-    <col customWidth="1" max="4" min="4" width="13.125"/>
-    <col customWidth="1" max="5" min="5" width="12.625"/>
-    <col customWidth="1" max="6" min="6" width="35.25"/>
-    <col customWidth="1" max="7" min="7" width="25.75"/>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="2" max="2" width="20.875" customWidth="1"/>
+    <col min="3" max="3" width="28.625" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="35.25" customWidth="1"/>
+    <col min="7" max="7" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>2</v>
@@ -659,24 +630,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Meizhu/meizhu_testcase.xlsx
+++ b/Meizhu/meizhu_testcase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
   <si>
     <t>用户名</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>密码不正确</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
   <si>
     <t>18802094000</t>
@@ -85,7 +88,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +136,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00FF00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -161,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -172,6 +181,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -511,16 +521,22 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
+      <c r="D2" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -528,28 +544,37 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -558,16 +583,22 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -575,9 +606,12 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1"/>
+      <c r="D9" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="F9" s="1"/>
     </row>
   </sheetData>
@@ -608,19 +642,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>2</v>

--- a/Meizhu/meizhu_testcase.xlsx
+++ b/Meizhu/meizhu_testcase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="美住登录" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>用户名</t>
   </si>
@@ -82,6 +82,14 @@
   </si>
   <si>
     <t>押金</t>
+  </si>
+  <si>
+    <t>15802094078</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>452402199309265439</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -485,7 +493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -623,10 +631,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -661,6 +669,20 @@
       </c>
       <c r="G1" s="7" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Meizhu/meizhu_testcase.xlsx
+++ b/Meizhu/meizhu_testcase.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
+    <workbookView activeTab="0" windowHeight="7950" windowWidth="14805" xWindow="240" yWindow="165"/>
   </bookViews>
   <sheets>
-    <sheet name="美住登录" sheetId="1" r:id="rId1"/>
-    <sheet name="间夜房-提交订单" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="美住登录" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="间夜房-提交订单" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <definedNames/>
+  <calcPr calcId="0" concurrentCalc="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>用户名</t>
   </si>
@@ -85,76 +85,81 @@
   </si>
   <si>
     <t>15802094078</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>452402199309265439</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="10">
+    <font>
       <name val="宋体"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
+      <charset val="134"/>
       <family val="3"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="134"/>
+      <family val="3"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color rgb="FF222222"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF222222"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="宋体"/>
       <family val="2"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00FF00"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <family val="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color rgb="FF00FF00"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <color rgb="0000FF00"/>
+    </font>
+    <font>
+      <color rgb="00FF0000"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -176,31 +181,27 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="11">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -490,19 +491,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="18.125" customWidth="1"/>
-    <col min="2" max="2" width="22.75" customWidth="1"/>
-    <col min="3" max="3" width="35.875" customWidth="1"/>
-    <col min="4" max="4" width="19.875" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="18.125"/>
+    <col customWidth="1" max="2" min="2" width="22.75"/>
+    <col customWidth="1" max="3" min="3" width="35.875"/>
+    <col customWidth="1" max="4" min="4" width="19.875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -529,7 +534,7 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -543,7 +548,7 @@
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -557,7 +562,7 @@
       <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -571,17 +576,17 @@
       <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="1" t="n"/>
       <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -589,23 +594,23 @@
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="n"/>
       <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -616,36 +621,39 @@
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="8" t="s">
+      <c r="C9" s="1" t="n"/>
+      <c r="D9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1" t="n"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
-    <col min="2" max="2" width="20.875" customWidth="1"/>
-    <col min="3" max="3" width="28.625" customWidth="1"/>
-    <col min="4" max="4" width="13.125" customWidth="1"/>
-    <col min="5" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="35.25" customWidth="1"/>
-    <col min="7" max="7" width="25.75" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="17.125"/>
+    <col customWidth="1" max="2" min="2" width="20.875"/>
+    <col customWidth="1" max="3" min="3" width="28.625"/>
+    <col customWidth="1" max="4" min="4" width="13.125"/>
+    <col customWidth="1" max="5" min="5" width="12.625"/>
+    <col customWidth="1" max="6" min="6" width="35.25"/>
+    <col customWidth="1" max="7" min="7" width="25.75"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -678,28 +686,32 @@
       <c r="C2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>100</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>50</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Meizhu/meizhu_testcase.xlsx
+++ b/Meizhu/meizhu_testcase.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" windowHeight="7950" windowWidth="14805" xWindow="240" yWindow="165"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9330" windowWidth="20010"/>
   </bookViews>
   <sheets>
     <sheet name="美住登录" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" concurrentCalc="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525" concurrentCalc="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -33,7 +33,7 @@
     <t>18802094078</t>
   </si>
   <si>
-    <t>qq1111111</t>
+    <t>111111b</t>
   </si>
   <si>
     <t>密码不正确</t>
@@ -45,28 +45,28 @@
     <t>18802094000</t>
   </si>
   <si>
+    <t>用户不存在</t>
+  </si>
+  <si>
+    <t>111111</t>
+  </si>
+  <si>
+    <t>密码要求6~20位数字与字母组合</t>
+  </si>
+  <si>
+    <t>1880209407</t>
+  </si>
+  <si>
+    <t>手机号格式错误</t>
+  </si>
+  <si>
+    <t>请填写手机号</t>
+  </si>
+  <si>
+    <t>请填写密码</t>
+  </si>
+  <si>
     <t>qq111111</t>
-  </si>
-  <si>
-    <t>用户不存在</t>
-  </si>
-  <si>
-    <t>111111111</t>
-  </si>
-  <si>
-    <t>密码要求6~20位数字与字母组合</t>
-  </si>
-  <si>
-    <t>1880209407</t>
-  </si>
-  <si>
-    <t>手机号格式错误</t>
-  </si>
-  <si>
-    <t>请填写手机号</t>
-  </si>
-  <si>
-    <t>请填写密码</t>
   </si>
   <si>
     <t>入住人</t>
@@ -94,11 +94,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="10">
-    <font>
-      <name val="宋体"/>
-      <family val="2"/>
+  <numFmts count="4">
+    <numFmt formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ " numFmtId="164"/>
+    <numFmt formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ " numFmtId="165"/>
+    <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="166"/>
+    <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="167"/>
+  </numFmts>
+  <fonts count="27">
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -106,58 +111,190 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <family val="3"/>
-      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <family val="3"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color rgb="FF222222"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color theme="1"/>
       <sz val="11"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="3"/>
-      <color rgb="FF222222"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <family val="2"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="134"/>
       <color rgb="FF00FF00"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <color rgb="0000FF00"/>
     </font>
-    <font>
-      <color rgb="00FF0000"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill/>
     </fill>
@@ -170,8 +307,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -179,27 +502,319 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="11" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="22" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="28" fontId="23" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="28" fontId="24" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="33" fontId="25" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
+    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
+    <cellStyle builtinId="20" name="输入" xfId="3"/>
+    <cellStyle builtinId="4" name="货币" xfId="4"/>
+    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
+    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
+    <cellStyle builtinId="27" name="差" xfId="7"/>
+    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
+    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
+    <cellStyle builtinId="8" name="超链接" xfId="10"/>
+    <cellStyle builtinId="5" name="百分比" xfId="11"/>
+    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
+    <cellStyle builtinId="10" name="注释" xfId="13"/>
+    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
+    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
+    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
+    <cellStyle builtinId="15" name="标题" xfId="17"/>
+    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
+    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
+    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
+    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
+    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
+    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
+    <cellStyle builtinId="21" name="输出" xfId="24"/>
+    <cellStyle builtinId="22" name="计算" xfId="25"/>
+    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
+    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
+    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
+    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
+    <cellStyle builtinId="25" name="汇总" xfId="30"/>
+    <cellStyle builtinId="26" name="好" xfId="31"/>
+    <cellStyle builtinId="28" name="适中" xfId="32"/>
+    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
+    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
+    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
+    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
+    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
+    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
+    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
+    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
+    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
+    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
+    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
+    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
+    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
+    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
+    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
@@ -486,7 +1101,6 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -496,13 +1110,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" width="18.125"/>
     <col customWidth="1" max="2" min="2" width="22.75"/>
@@ -510,125 +1124,123 @@
     <col customWidth="1" max="4" min="4" width="19.875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="B7" s="9" t="n"/>
+      <c r="C7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4" t="s">
+    <row r="8" spans="1:4">
+      <c r="B8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D8" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="n"/>
-      <c r="B6" s="1" t="n"/>
-      <c r="C6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="9" t="s">
+    <row r="9" spans="1:4">
+      <c r="A9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="n"/>
-      <c r="C7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="n"/>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1" t="n"/>
-      <c r="D9" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="1" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
@@ -645,7 +1257,7 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0" outlineLevelRow="1"/>
   <cols>
     <col customWidth="1" max="1" min="1" width="17.125"/>
     <col customWidth="1" max="2" min="2" width="20.875"/>
@@ -657,33 +1269,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="10" t="s">
         <v>23</v>
       </c>
       <c r="D2" t="n">
@@ -694,7 +1306,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
 </worksheet>
 </file>
 
@@ -710,8 +1322,8 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
 </worksheet>
 </file>
--- a/Meizhu/meizhu_testcase.xlsx
+++ b/Meizhu/meizhu_testcase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
   <si>
     <t>用户名</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>qq111111</t>
+  </si>
+  <si>
+    <t>‘111</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
   <si>
     <t>入住人</t>
@@ -117,7 +123,7 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF00FF00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -141,15 +147,129 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="134"/>
-      <color rgb="FF00FF00"/>
-      <sz val="11"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
       <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -164,134 +284,16 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <b val="1"/>
       <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <color rgb="0000FF00"/>
+    </font>
+    <font>
+      <color rgb="00FF0000"/>
     </font>
   </fonts>
   <fills count="34">
@@ -309,13 +311,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,37 +443,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,127 +479,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,21 +502,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -529,44 +516,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,6 +535,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -600,16 +582,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="11" fontId="13" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="11" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
@@ -618,137 +620,137 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="20" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="23" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="19" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="19" fontId="24" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="27" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="22" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="33" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="21" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="3" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="22" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="28" fontId="23" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="28" fontId="24" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="33" fontId="25" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="12" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -759,10 +761,9 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1113,7 +1114,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -1139,104 +1140,107 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="9" t="n"/>
+      <c r="B7" s="3" t="n"/>
       <c r="C7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>7</v>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1270,19 +1274,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -1292,11 +1296,11 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="B2" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>23</v>
+      <c r="B2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="D2" t="n">
         <v>100</v>

--- a/Meizhu/meizhu_testcase.xlsx
+++ b/Meizhu/meizhu_testcase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>用户名</t>
   </si>
@@ -69,12 +69,6 @@
     <t>qq111111</t>
   </si>
   <si>
-    <t>‘111</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
     <t>入住人</t>
   </si>
   <si>
@@ -93,7 +87,7 @@
     <t>15802094078</t>
   </si>
   <si>
-    <t>452402199309265439</t>
+    <t>452402199309265438</t>
   </si>
 </sst>
 </file>
@@ -106,7 +100,7 @@
     <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="166"/>
     <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="167"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -148,23 +142,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -179,14 +157,6 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color rgb="FF9C0006"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -194,36 +164,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <b val="1"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -238,15 +180,67 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -269,31 +263,28 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <color rgb="0000FF00"/>
-    </font>
-    <font>
-      <color rgb="00FF0000"/>
     </font>
   </fonts>
   <fills count="34">
@@ -317,6 +308,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -329,6 +332,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -365,19 +422,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,54 +458,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -468,30 +483,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,21 +507,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,8 +538,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,25 +593,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="11" fontId="14" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="22" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
@@ -620,137 +611,137 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="20" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="13" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="23" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="19" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="19" fontId="24" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="27" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="22" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="33" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="12" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="12" fontId="22" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="12" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="31" fontId="23" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="24" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="33" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -764,7 +755,6 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
@@ -1114,7 +1104,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -1236,11 +1226,8 @@
       <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>18</v>
+      <c r="D9" s="10" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1258,7 +1245,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0" outlineLevelRow="1"/>
@@ -1274,19 +1261,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -1297,10 +1284,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="B2" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
         <v>100</v>

--- a/Meizhu/meizhu_testcase.xlsx
+++ b/Meizhu/meizhu_testcase.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9330" windowWidth="20010"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9195" windowWidth="21000"/>
   </bookViews>
   <sheets>
     <sheet name="美住登录" sheetId="1" state="visible" r:id="rId1"/>
@@ -148,10 +148,49 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="11"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -164,8 +203,15 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -180,7 +226,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -203,13 +250,6 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -217,22 +257,6 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -240,46 +264,22 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
       <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -302,6 +302,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -314,13 +338,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,6 +350,120 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -344,30 +476,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -375,114 +483,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,6 +493,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -514,82 +588,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,10 +599,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="22" fontId="18" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="23" fontId="21" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
@@ -614,130 +614,130 @@
     <xf applyAlignment="1" borderId="0" fillId="6" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="15" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="21" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="13" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="7" numFmtId="0">
+    <xf applyAlignment="1" borderId="3" fillId="14" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="14" fontId="22" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="5" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="33" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="23" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="24" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="19" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="12" fontId="22" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="12" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="31" fontId="23" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="24" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="33" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1104,7 +1104,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>

--- a/Meizhu/meizhu_testcase.xlsx
+++ b/Meizhu/meizhu_testcase.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9195" windowWidth="21000"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11265" windowWidth="21060"/>
   </bookViews>
   <sheets>
     <sheet name="美住登录" sheetId="1" state="visible" r:id="rId1"/>
@@ -148,9 +148,83 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -165,15 +239,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -188,39 +255,24 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF800080"/>
       <sz val="11"/>
       <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -232,58 +284,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <color rgb="0000FF00"/>
     </font>
   </fonts>
@@ -302,12 +302,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -320,37 +458,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,127 +482,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,6 +493,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -515,22 +554,27 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,195 +593,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="16" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="23" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="33" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="10" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="10" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="28" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="22" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="24" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="26" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="23" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="15" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="14" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="14" fontId="22" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="5" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="33" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="23" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="24" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="20" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="25" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="14" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="24" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="14" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="3" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="14" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1104,7 +1104,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>

--- a/Meizhu/meizhu_testcase.xlsx
+++ b/Meizhu/meizhu_testcase.xlsx
@@ -100,7 +100,7 @@
     <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="166"/>
     <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="167"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -285,6 +285,9 @@
     </font>
     <font>
       <color rgb="0000FF00"/>
+    </font>
+    <font>
+      <color rgb="00FF0000"/>
     </font>
   </fonts>
   <fills count="34">
@@ -741,7 +744,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -755,6 +758,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
@@ -1139,7 +1143,7 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1153,7 +1157,7 @@
       <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1167,7 +1171,7 @@
       <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1181,7 +1185,7 @@
       <c r="C5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1192,7 +1196,7 @@
       <c r="C6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1204,7 +1208,7 @@
       <c r="C7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1215,7 +1219,7 @@
       <c r="C8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1226,7 +1230,7 @@
       <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="11" t="s">
         <v>7</v>
       </c>
     </row>
